--- a/SchedulingData/dynamic10/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_6.xlsx
@@ -466,98 +466,98 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>81.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.52</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>69.04000000000001</v>
+        <v>133.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.736</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>131.54</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>22.116</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>40.88</v>
+        <v>104.12</v>
       </c>
       <c r="E5" t="n">
-        <v>26.612</v>
+        <v>24.388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>65.59999999999999</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40.88</v>
+        <v>133.1</v>
       </c>
       <c r="D7" t="n">
-        <v>126.12</v>
+        <v>188.64</v>
       </c>
       <c r="E7" t="n">
-        <v>22.188</v>
+        <v>17.056</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126.12</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>179.62</v>
+        <v>105.54</v>
       </c>
       <c r="E8" t="n">
-        <v>18.948</v>
+        <v>24.216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>188.64</v>
       </c>
       <c r="D9" t="n">
-        <v>66.42</v>
+        <v>244.9</v>
       </c>
       <c r="E9" t="n">
-        <v>27.008</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="10">
@@ -618,283 +618,283 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.42</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>112.82</v>
+        <v>58.8</v>
       </c>
       <c r="E10" t="n">
-        <v>24.488</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>112.82</v>
+        <v>105.54</v>
       </c>
       <c r="D11" t="n">
-        <v>197.84</v>
+        <v>164.34</v>
       </c>
       <c r="E11" t="n">
-        <v>21.576</v>
+        <v>20.976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65.59999999999999</v>
+        <v>244.9</v>
       </c>
       <c r="D12" t="n">
-        <v>119.3</v>
+        <v>319.92</v>
       </c>
       <c r="E12" t="n">
-        <v>23.34</v>
+        <v>11.128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>58.8</v>
       </c>
       <c r="D13" t="n">
-        <v>79.66</v>
+        <v>102.7</v>
       </c>
       <c r="E13" t="n">
-        <v>26.204</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.66</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>136.18</v>
+        <v>102.5</v>
       </c>
       <c r="E14" t="n">
-        <v>22.172</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>81.2</v>
+        <v>164.34</v>
       </c>
       <c r="D15" t="n">
-        <v>141.8</v>
+        <v>235.86</v>
       </c>
       <c r="E15" t="n">
-        <v>21.6</v>
+        <v>16.944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>136.18</v>
+        <v>104.12</v>
       </c>
       <c r="D16" t="n">
-        <v>195.64</v>
+        <v>155.14</v>
       </c>
       <c r="E16" t="n">
-        <v>19.356</v>
+        <v>21.396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>131.54</v>
+        <v>235.86</v>
       </c>
       <c r="D17" t="n">
-        <v>199.68</v>
+        <v>277.02</v>
       </c>
       <c r="E17" t="n">
-        <v>18.892</v>
+        <v>14.448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>179.62</v>
+        <v>102.5</v>
       </c>
       <c r="D18" t="n">
-        <v>239.18</v>
+        <v>169.9</v>
       </c>
       <c r="E18" t="n">
-        <v>16.092</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>141.8</v>
+        <v>277.02</v>
       </c>
       <c r="D19" t="n">
-        <v>194.3</v>
+        <v>351.28</v>
       </c>
       <c r="E19" t="n">
-        <v>18.48</v>
+        <v>11.632</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>119.3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>160.76</v>
+        <v>65.88</v>
       </c>
       <c r="E20" t="n">
-        <v>20.324</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>160.76</v>
+        <v>65.88</v>
       </c>
       <c r="D21" t="n">
-        <v>217.66</v>
+        <v>124.94</v>
       </c>
       <c r="E21" t="n">
-        <v>17.724</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>195.64</v>
+        <v>102.7</v>
       </c>
       <c r="D22" t="n">
-        <v>253.14</v>
+        <v>167.6</v>
       </c>
       <c r="E22" t="n">
-        <v>14.736</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>197.84</v>
+        <v>155.14</v>
       </c>
       <c r="D23" t="n">
-        <v>275.84</v>
+        <v>192.54</v>
       </c>
       <c r="E23" t="n">
-        <v>16.896</v>
+        <v>18.796</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>239.18</v>
+        <v>124.94</v>
       </c>
       <c r="D24" t="n">
-        <v>295.34</v>
+        <v>187.14</v>
       </c>
       <c r="E24" t="n">
-        <v>13.076</v>
+        <v>19.696</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>194.3</v>
+        <v>319.92</v>
       </c>
       <c r="D25" t="n">
-        <v>273.8</v>
+        <v>368.36</v>
       </c>
       <c r="E25" t="n">
-        <v>13.62</v>
+        <v>7.904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>253.14</v>
+        <v>169.9</v>
       </c>
       <c r="D26" t="n">
-        <v>321.6</v>
+        <v>235.8</v>
       </c>
       <c r="E26" t="n">
-        <v>11.98</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>217.66</v>
+        <v>187.14</v>
       </c>
       <c r="D27" t="n">
-        <v>256</v>
+        <v>247.64</v>
       </c>
       <c r="E27" t="n">
-        <v>15.02</v>
+        <v>15.776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>199.68</v>
+        <v>192.54</v>
       </c>
       <c r="D28" t="n">
-        <v>262.18</v>
+        <v>253.6</v>
       </c>
       <c r="E28" t="n">
-        <v>14.752</v>
+        <v>15.78</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>262.18</v>
+        <v>235.8</v>
       </c>
       <c r="D29" t="n">
-        <v>302.68</v>
+        <v>269.24</v>
       </c>
       <c r="E29" t="n">
-        <v>12.332</v>
+        <v>14.056</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>256</v>
+        <v>167.6</v>
       </c>
       <c r="D30" t="n">
-        <v>312.26</v>
+        <v>228</v>
       </c>
       <c r="E30" t="n">
-        <v>12.004</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>275.84</v>
+        <v>269.24</v>
       </c>
       <c r="D31" t="n">
-        <v>326.9</v>
+        <v>325.5</v>
       </c>
       <c r="E31" t="n">
-        <v>14.4</v>
+        <v>11.04</v>
       </c>
     </row>
   </sheetData>
